--- a/output/EssencialReations_analise/Reactions/grp5.xlsx
+++ b/output/EssencialReations_analise/Reactions/grp5.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anabe\OneDrive\Área de Trabalho\faculdade\@Lab\Bisch\V.cholerae1\Não anotado\@Saídas\EssencialReations_analise\Reactions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anabe\OneDrive\Área de Trabalho\faculdade\@Lab\Bisch\V.cholerae1\V. cholerae metabolism\output\EssencialReations_analise\Reactions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795BFA7D-8E2F-4BA1-91D4-D49146F06EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DDA181-BE52-4BD3-AA2F-590D9F6915A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="1890" windowWidth="7950" windowHeight="6600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha3" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha3!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -457,6 +460,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2440,8 +2444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC87E13C-70C9-4663-A7EE-74ED49442A5C}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2471,22 +2475,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>-410.017</v>
+        <v>6.9175399999999998</v>
       </c>
       <c r="E2">
-        <v>-100</v>
+        <v>28.363099999999999</v>
       </c>
       <c r="F2">
-        <v>-255.0085</v>
+        <v>17.640319999999999</v>
       </c>
       <c r="G2" t="e">
         <v>#N/A</v>
@@ -2494,13 +2492,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2517,22 +2509,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="D4">
-        <v>-358.68599999999998</v>
+        <v>7.4633399999999996</v>
       </c>
       <c r="E4">
-        <v>-87.480599999999995</v>
+        <v>30.600999999999999</v>
       </c>
       <c r="F4">
-        <v>-223.08329999999998</v>
+        <v>19.032170000000001</v>
       </c>
       <c r="G4" t="e">
         <v>#N/A</v>
@@ -2540,91 +2532,91 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-55.293900000000001</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>-13.4857</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>-34.389800000000001</v>
+      </c>
+      <c r="G5" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>76.398700000000005</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>313.24799999999999</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+        <v>194.82335</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>25.358699999999999</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>231.971</v>
       </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
+        <v>128.66485</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D8">
-        <v>72.336399999999998</v>
+        <v>-30.600999999999999</v>
       </c>
       <c r="E8">
-        <v>296.59199999999998</v>
+        <v>-7.4633399999999996</v>
       </c>
       <c r="F8">
-        <v>184.46420000000001</v>
+        <v>-19.032170000000001</v>
       </c>
       <c r="G8" t="e">
         <v>#N/A</v>
@@ -2632,45 +2624,45 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>-315.92</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>-77.050399999999996</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>-196.48520000000002</v>
-      </c>
-      <c r="G9" t="e">
-        <v>#N/A</v>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="D10">
-        <v>-30.600999999999999</v>
+        <v>3.8015400000000001</v>
       </c>
       <c r="E10">
-        <v>-7.4633399999999996</v>
+        <v>15.587</v>
       </c>
       <c r="F10">
-        <v>-19.032170000000001</v>
+        <v>9.6942699999999995</v>
       </c>
       <c r="G10" t="e">
         <v>#N/A</v>
@@ -2678,22 +2670,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D11">
-        <v>29.1602</v>
+        <v>9.8478099999999991</v>
       </c>
       <c r="E11">
-        <v>119.562</v>
+        <v>40.377800000000001</v>
       </c>
       <c r="F11">
-        <v>74.361099999999993</v>
+        <v>25.112805000000002</v>
       </c>
       <c r="G11" t="e">
         <v>#N/A</v>
@@ -2701,22 +2693,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="D12">
-        <v>7.4633399999999996</v>
+        <v>17.777699999999999</v>
       </c>
       <c r="E12">
-        <v>30.600999999999999</v>
+        <v>72.891800000000003</v>
       </c>
       <c r="F12">
-        <v>19.032170000000001</v>
+        <v>45.33475</v>
       </c>
       <c r="G12" t="e">
         <v>#N/A</v>
@@ -2724,22 +2716,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D13">
-        <v>76.398700000000005</v>
+        <v>2.5719400000000001</v>
       </c>
       <c r="E13">
-        <v>313.24799999999999</v>
+        <v>10.545400000000001</v>
       </c>
       <c r="F13">
-        <v>194.82335</v>
+        <v>6.5586700000000002</v>
       </c>
       <c r="G13" t="e">
         <v>#N/A</v>
@@ -2747,22 +2739,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="D14">
-        <v>43.737499999999997</v>
+        <v>-15.587</v>
       </c>
       <c r="E14">
-        <v>179.33199999999999</v>
+        <v>-3.8015400000000001</v>
       </c>
       <c r="F14">
-        <v>111.53475</v>
+        <v>-9.6942699999999995</v>
       </c>
       <c r="G14" t="e">
         <v>#N/A</v>
@@ -2770,22 +2762,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D15">
-        <v>7.4633399999999996</v>
+        <v>-10.545400000000001</v>
       </c>
       <c r="E15">
-        <v>30.600999999999999</v>
+        <v>-2.5719400000000001</v>
       </c>
       <c r="F15">
-        <v>19.032170000000001</v>
+        <v>-6.5586700000000002</v>
       </c>
       <c r="G15" t="e">
         <v>#N/A</v>
@@ -2793,22 +2785,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="D16">
-        <v>2.5719400000000001</v>
+        <v>43.737499999999997</v>
       </c>
       <c r="E16">
-        <v>10.545400000000001</v>
+        <v>179.33199999999999</v>
       </c>
       <c r="F16">
-        <v>6.5586700000000002</v>
+        <v>111.53475</v>
       </c>
       <c r="G16" t="e">
         <v>#N/A</v>
@@ -2816,22 +2808,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D17">
-        <v>-15.587</v>
+        <v>3.8015400000000001</v>
       </c>
       <c r="E17">
-        <v>-3.8015400000000001</v>
+        <v>15.587</v>
       </c>
       <c r="F17">
-        <v>-9.6942699999999995</v>
+        <v>9.6942699999999995</v>
       </c>
       <c r="G17" t="e">
         <v>#N/A</v>
@@ -2839,22 +2831,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="D18">
-        <v>-10.545400000000001</v>
+        <v>-313.24799999999999</v>
       </c>
       <c r="E18">
-        <v>-2.5719400000000001</v>
+        <v>-76.398700000000005</v>
       </c>
       <c r="F18">
-        <v>-6.5586700000000002</v>
+        <v>-194.82335</v>
       </c>
       <c r="G18" t="e">
         <v>#N/A</v>
@@ -2862,22 +2854,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D19">
-        <v>2.5719400000000001</v>
+        <v>7.4633399999999996</v>
       </c>
       <c r="E19">
-        <v>10.545400000000001</v>
+        <v>30.600999999999999</v>
       </c>
       <c r="F19">
-        <v>6.5586700000000002</v>
+        <v>19.032170000000001</v>
       </c>
       <c r="G19" t="e">
         <v>#N/A</v>
@@ -2885,22 +2877,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D20">
-        <v>21.767800000000001</v>
+        <v>-179.33199999999999</v>
       </c>
       <c r="E20">
-        <v>89.2517</v>
+        <v>-43.737499999999997</v>
       </c>
       <c r="F20">
-        <v>55.509749999999997</v>
+        <v>-111.53475</v>
       </c>
       <c r="G20" t="e">
         <v>#N/A</v>
@@ -2908,22 +2900,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="D21">
-        <v>243.892</v>
+        <v>2.5719400000000001</v>
       </c>
       <c r="E21">
-        <v>1000</v>
+        <v>10.545400000000001</v>
       </c>
       <c r="F21">
-        <v>621.94600000000003</v>
+        <v>6.5586700000000002</v>
       </c>
       <c r="G21" t="e">
         <v>#N/A</v>
@@ -2931,22 +2923,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D22">
-        <v>3.8015400000000001</v>
+        <v>3.63794</v>
       </c>
       <c r="E22">
-        <v>15.587</v>
+        <v>14.9162</v>
       </c>
       <c r="F22">
-        <v>9.6942699999999995</v>
+        <v>9.2770700000000001</v>
       </c>
       <c r="G22" t="e">
         <v>#N/A</v>
@@ -2954,22 +2946,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D23">
-        <v>144.673</v>
+        <v>3.63794</v>
       </c>
       <c r="E23">
-        <v>593.18399999999997</v>
+        <v>14.9162</v>
       </c>
       <c r="F23">
-        <v>368.92849999999999</v>
+        <v>9.2770700000000001</v>
       </c>
       <c r="G23" t="e">
         <v>#N/A</v>
@@ -2977,22 +2969,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="D24">
-        <v>-179.33199999999999</v>
+        <v>-14.9162</v>
       </c>
       <c r="E24">
-        <v>-43.737499999999997</v>
+        <v>-3.63794</v>
       </c>
       <c r="F24">
-        <v>-111.53475</v>
+        <v>-9.2770700000000001</v>
       </c>
       <c r="G24" t="e">
         <v>#N/A</v>
@@ -3000,22 +2992,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D25">
-        <v>-313.24799999999999</v>
+        <v>7.4633399999999996</v>
       </c>
       <c r="E25">
-        <v>-76.398700000000005</v>
+        <v>30.600999999999999</v>
       </c>
       <c r="F25">
-        <v>-194.82335</v>
+        <v>19.032170000000001</v>
       </c>
       <c r="G25" t="e">
         <v>#N/A</v>
@@ -3046,22 +3038,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="D27">
-        <v>-55.293900000000001</v>
+        <v>-358.68599999999998</v>
       </c>
       <c r="E27">
-        <v>-13.4857</v>
+        <v>-87.480599999999995</v>
       </c>
       <c r="F27">
-        <v>-34.389800000000001</v>
+        <v>-223.08329999999998</v>
       </c>
       <c r="G27" t="e">
         <v>#N/A</v>
@@ -3069,22 +3061,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D28">
-        <v>3.63794</v>
+        <v>21.767800000000001</v>
       </c>
       <c r="E28">
-        <v>14.9162</v>
+        <v>89.2517</v>
       </c>
       <c r="F28">
-        <v>9.2770700000000001</v>
+        <v>55.509749999999997</v>
       </c>
       <c r="G28" t="e">
         <v>#N/A</v>
@@ -3092,22 +3084,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D29">
-        <v>3.63794</v>
+        <v>29.1602</v>
       </c>
       <c r="E29">
-        <v>14.9162</v>
+        <v>119.562</v>
       </c>
       <c r="F29">
-        <v>9.2770700000000001</v>
+        <v>74.361099999999993</v>
       </c>
       <c r="G29" t="e">
         <v>#N/A</v>
@@ -3115,22 +3107,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="D30">
-        <v>7.4633399999999996</v>
+        <v>-315.92</v>
       </c>
       <c r="E30">
-        <v>30.600999999999999</v>
+        <v>-77.050399999999996</v>
       </c>
       <c r="F30">
-        <v>19.032170000000001</v>
+        <v>-196.48520000000002</v>
       </c>
       <c r="G30" t="e">
         <v>#N/A</v>
@@ -3138,22 +3130,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="D31">
-        <v>25.358699999999999</v>
+        <v>-410.017</v>
       </c>
       <c r="E31">
-        <v>231.971</v>
+        <v>-100</v>
       </c>
       <c r="F31">
-        <v>128.66485</v>
+        <v>-255.0085</v>
       </c>
       <c r="G31" t="e">
         <v>#N/A</v>
@@ -3161,22 +3153,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D32">
-        <v>9.8478099999999991</v>
+        <v>72.336399999999998</v>
       </c>
       <c r="E32">
-        <v>40.377800000000001</v>
+        <v>296.59199999999998</v>
       </c>
       <c r="F32">
-        <v>25.112805000000002</v>
+        <v>184.46420000000001</v>
       </c>
       <c r="G32" t="e">
         <v>#N/A</v>
@@ -3184,22 +3176,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D33">
-        <v>3.8015400000000001</v>
+        <v>-55.293900000000001</v>
       </c>
       <c r="E33">
-        <v>15.587</v>
+        <v>-13.4857</v>
       </c>
       <c r="F33">
-        <v>9.6942699999999995</v>
+        <v>-34.389800000000001</v>
       </c>
       <c r="G33" t="e">
         <v>#N/A</v>
@@ -3207,22 +3199,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D34">
-        <v>17.777699999999999</v>
+        <v>76.398700000000005</v>
       </c>
       <c r="E34">
-        <v>72.891800000000003</v>
+        <v>313.24799999999999</v>
       </c>
       <c r="F34">
-        <v>45.33475</v>
+        <v>194.82335</v>
       </c>
       <c r="G34" t="e">
         <v>#N/A</v>
@@ -3230,13 +3222,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35">
         <v>-136.9</v>
@@ -3253,13 +3245,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D36">
         <v>-136.9</v>
@@ -3276,22 +3268,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="D37">
-        <v>76.398700000000005</v>
+        <v>243.892</v>
       </c>
       <c r="E37">
-        <v>313.24799999999999</v>
+        <v>1000</v>
       </c>
       <c r="F37">
-        <v>194.82335</v>
+        <v>621.94600000000003</v>
       </c>
       <c r="G37" t="e">
         <v>#N/A</v>
@@ -3299,62 +3291,68 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="D38">
-        <v>-55.293900000000001</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>-13.4857</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>-34.389800000000001</v>
-      </c>
-      <c r="G38" t="e">
-        <v>#N/A</v>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="D39">
-        <v>-14.9162</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>-3.63794</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>-9.2770700000000001</v>
-      </c>
-      <c r="G39" t="e">
-        <v>#N/A</v>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
       </c>
       <c r="D40">
-        <v>6.9175399999999998</v>
+        <v>144.673</v>
       </c>
       <c r="E40">
-        <v>28.363099999999999</v>
+        <v>593.18399999999997</v>
       </c>
       <c r="F40">
-        <v>17.640319999999999</v>
+        <v>368.92849999999999</v>
       </c>
       <c r="G40" t="e">
         <v>#N/A</v>
@@ -3362,7 +3360,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -3378,6 +3382,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{EC87E13C-70C9-4663-A7EE-74ED49442A5C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G41">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>